--- a/테이블 ㅓㅇ보.xlsx
+++ b/테이블 ㅓㅇ보.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t xml:space="preserve">Table </t>
   </si>
@@ -94,6 +94,12 @@
     <t xml:space="preserve">userId</t>
   </si>
   <si>
+    <t xml:space="preserve">기본 SEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">비밀번호</t>
   </si>
   <si>
@@ -197,6 +203,141 @@
   </si>
   <si>
     <t xml:space="preserve">현재일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그런데 금액표기는 원화로 해요 엔화로 해요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">변수 표</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(추가할거 생기면 추가)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">코드명(codeName)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">코드번호(cordNo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분류코드(cordSection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분류코드표</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수입/지출</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대분류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">소분류</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문화생활</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주거생활</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건강관리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">교통비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">쇼핑비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회생활</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식사</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음료</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식재료</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영화/공연</t>
+  </si>
+  <si>
+    <t xml:space="preserve">게임</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음악</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도서</t>
+  </si>
+  <si>
+    <t xml:space="preserve">여행</t>
+  </si>
+  <si>
+    <t xml:space="preserve">집세/관리비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">통신비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생필품</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공과금</t>
+  </si>
+  <si>
+    <t xml:space="preserve">병원</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운동</t>
+  </si>
+  <si>
+    <t xml:space="preserve">건강식품</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대중교통</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정기권</t>
+  </si>
+  <si>
+    <t xml:space="preserve">택시비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">랜트비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의류/잡화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전자제품</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경조사비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선물/용돈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모임회비</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기부</t>
   </si>
 </sst>
 </file>
@@ -206,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,8 +385,22 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,13 +410,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFD320"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD320"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -382,7 +543,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,16 +578,28 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -451,7 +624,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,7 +632,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,6 +657,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -537,7 +722,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -564,10 +749,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:P42"/>
+  <dimension ref="A3:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,69 +862,80 @@
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="H10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="F14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="4"/>
@@ -753,43 +949,43 @@
         <v>20</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,183 +1005,789 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="9"/>
+      <c r="L24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="10"/>
       <c r="N24" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="9"/>
+      <c r="L25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="10"/>
       <c r="N25" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="9"/>
+      <c r="L26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="10"/>
       <c r="N26" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="9"/>
+      <c r="L27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="10"/>
       <c r="N27" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="J31" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="J31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="J32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="14"/>
-      <c r="F33" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="19"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="22"/>
       <c r="H33" s="4"/>
-      <c r="J33" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="21"/>
+      <c r="J33" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="14"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="22"/>
-      <c r="J34" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="21"/>
+      <c r="H34" s="25"/>
+      <c r="J34" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="14"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="22"/>
-      <c r="J35" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="21"/>
+      <c r="H35" s="25"/>
+      <c r="J35" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="J36" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="21"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="J36" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="J37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" s="31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="41">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="B6:C6"/>
@@ -997,8 +1799,10 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
@@ -1013,15 +1817,18 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
